--- a/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87967328-59C9-4C59-9741-8F05B4C75282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66736D0F-575D-47A5-A066-508DAA129AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
   <si>
     <t>Analista Inspector</t>
   </si>
@@ -96,9 +96,6 @@
     <t>HU: VUCEPERPAM-250 Detalle del manifiesto de mercancías peligrosas</t>
   </si>
   <si>
-    <t>Contiene 21 Casos de Prueba</t>
-  </si>
-  <si>
     <t>Contiene 36 Casos de Prueba</t>
   </si>
   <si>
@@ -130,6 +127,10 @@
   </si>
   <si>
     <t>Los casos en PPS e IPS se encuentran atendidos (ninguno en estado Pendiente) ?</t>
+  </si>
+  <si>
+    <t>Contiene 21 Casos de Prueba, 2 no aplican.
+El HU actual tiene diferencias con el IPS/PPS mapeado.</t>
   </si>
 </sst>
 </file>
@@ -499,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,18 +519,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,12 +529,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -562,6 +545,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,6 +710,182 @@
         <a:xfrm>
           <a:off x="10860024" y="4572002"/>
           <a:ext cx="1074241" cy="403610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1238252</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1784146</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB6151-1C9F-984A-9DD7-30DBBE33524A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11210927" y="3581400"/>
+          <a:ext cx="545894" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1921002</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>484117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B18596E-EAC4-0E85-6D28-6A4220582202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11077575" y="9631718"/>
+          <a:ext cx="816102" cy="444074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786848</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2236306</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>433359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D3BF60-B20E-B771-8965-44D5F99DDD5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10759109" y="9148879"/>
+          <a:ext cx="1449458" cy="378784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>728870</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2178328</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>445045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D25D4E-28BE-4241-A1BE-7ECD899856F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10701131" y="7644848"/>
+          <a:ext cx="1449458" cy="378784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,14 +1162,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="119" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="20" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -998,35 +1178,35 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="23">
         <v>45678</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1034,57 +1214,61 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -1095,16 +1279,16 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1112,51 +1296,57 @@
       <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="16"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="C21" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
@@ -1170,10 +1360,10 @@
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1184,51 +1374,51 @@
       <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
+      <c r="C30" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
@@ -1239,16 +1429,16 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1256,51 +1446,51 @@
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
+      <c r="C39" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
@@ -1311,16 +1501,16 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1328,51 +1518,51 @@
       <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
+      <c r="C48" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
     </row>
     <row r="49" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
@@ -1383,16 +1573,16 @@
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1400,51 +1590,51 @@
       <c r="B52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
+      <c r="C57" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
@@ -1455,16 +1645,16 @@
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1472,51 +1662,51 @@
       <c r="B61" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="9"/>
     </row>
     <row r="66" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19"/>
+      <c r="C66" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
     </row>
     <row r="67" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
@@ -1527,16 +1717,16 @@
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1544,51 +1734,51 @@
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="9"/>
     </row>
     <row r="75" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="19"/>
+      <c r="C75" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="20"/>
     </row>
     <row r="76" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
@@ -1599,16 +1789,16 @@
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1616,51 +1806,51 @@
       <c r="B79" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="9"/>
     </row>
     <row r="84" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="19"/>
+      <c r="C84" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="19"/>
+      <c r="E84" s="20"/>
     </row>
     <row r="85" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
@@ -1671,16 +1861,16 @@
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1688,51 +1878,51 @@
       <c r="B88" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="9"/>
     </row>
     <row r="93" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="19"/>
+      <c r="C93" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="20"/>
     </row>
     <row r="94" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
@@ -1743,16 +1933,16 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1760,60 +1950,54 @@
       <c r="B97" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="19"/>
+      <c r="C102" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C57:E57"/>
@@ -1821,6 +2005,12 @@
     <mergeCell ref="C75:E75"/>
     <mergeCell ref="C84:E84"/>
     <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66736D0F-575D-47A5-A066-508DAA129AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439870BC-B384-408E-8A16-CB3B58370923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
   <si>
     <t>Analista Inspector</t>
   </si>
@@ -96,9 +96,6 @@
     <t>HU: VUCEPERPAM-250 Detalle del manifiesto de mercancías peligrosas</t>
   </si>
   <si>
-    <t>Contiene 36 Casos de Prueba</t>
-  </si>
-  <si>
     <t>Contiene 48 Casos de Prueba</t>
   </si>
   <si>
@@ -129,8 +126,12 @@
     <t>Los casos en PPS e IPS se encuentran atendidos (ninguno en estado Pendiente) ?</t>
   </si>
   <si>
+    <t>Contiene 36 Casos de Prueba, 7 de ellos postergado.
+El HU actual tiene diferencias con el IPS/PPS mapeado. Los roles propietarios ha variado significativamente</t>
+  </si>
+  <si>
     <t>Contiene 21 Casos de Prueba, 2 no aplican.
-El HU actual tiene diferencias con el IPS/PPS mapeado.</t>
+El HU actual tiene diferencias con el IPS/PPS mapeado. Los roles propietarios ha variado significativamente</t>
   </si>
 </sst>
 </file>
@@ -199,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +225,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -500,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -552,21 +571,46 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,6 +938,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>905659</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1694793</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>458971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23894EEC-5D8A-3FFA-DCDF-78EA6CA2968E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10883918" y="8113089"/>
+          <a:ext cx="789134" cy="438848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1162,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1178,21 +1266,21 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="24">
         <v>45678</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1211,60 +1299,60 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="2:5" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="19"/>
@@ -1307,20 +1395,24 @@
         <v>7</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>11</v>
@@ -1338,12 +1430,12 @@
       <c r="D20" s="16"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>23</v>
+      <c r="C21" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -1371,51 +1463,51 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="7"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
@@ -1468,7 +1560,7 @@
     </row>
     <row r="37" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -1487,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
@@ -1540,7 +1632,7 @@
     </row>
     <row r="46" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -1559,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
@@ -1612,7 +1704,7 @@
     </row>
     <row r="55" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -1631,7 +1723,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
@@ -1684,7 +1776,7 @@
     </row>
     <row r="64" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -1703,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="20"/>
@@ -1756,7 +1848,7 @@
     </row>
     <row r="73" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -1775,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
@@ -1828,7 +1920,7 @@
     </row>
     <row r="82" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -1847,7 +1939,7 @@
         <v>10</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="20"/>
@@ -1900,7 +1992,7 @@
     </row>
     <row r="91" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -1919,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="20"/>
@@ -1972,7 +2064,7 @@
     </row>
     <row r="100" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -1991,7 +2083,7 @@
         <v>10</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="20"/>

--- a/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439870BC-B384-408E-8A16-CB3B58370923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A17CEB-C1F2-4100-8649-DD1E85F9EE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
   <si>
     <t>Analista Inspector</t>
   </si>
@@ -94,12 +94,6 @@
   </si>
   <si>
     <t>HU: VUCEPERPAM-250 Detalle del manifiesto de mercancías peligrosas</t>
-  </si>
-  <si>
-    <t>Contiene 48 Casos de Prueba</t>
-  </si>
-  <si>
-    <t>Contiene 8 Casos de Prueba</t>
   </si>
   <si>
     <t>Contiene 9 Casos de Prueba</t>
@@ -131,6 +125,14 @@
   </si>
   <si>
     <t>Contiene 21 Casos de Prueba, 2 no aplican.
+El HU actual tiene diferencias con el IPS/PPS mapeado. Los roles propietarios ha variado significativamente</t>
+  </si>
+  <si>
+    <t>Contiene 48 Casos de Prueba
+El HU actual tiene diferencias con el IPS/PPS mapeado. Los roles propietarios ha variado significativamente</t>
+  </si>
+  <si>
+    <t>Contiene 8 Casos de Prueba
 El HU actual tiene diferencias con el IPS/PPS mapeado. Los roles propietarios ha variado significativamente</t>
   </si>
 </sst>
@@ -200,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,24 +227,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -519,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -586,31 +570,16 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,7 +721,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10860024" y="4572002"/>
+          <a:off x="10859464" y="4577045"/>
           <a:ext cx="1074241" cy="403610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -765,15 +734,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1238252</xdr:colOff>
+      <xdr:colOff>1215022</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1784146</xdr:colOff>
+      <xdr:colOff>1743076</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:rowOff>480670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -796,8 +765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11210927" y="3581400"/>
-          <a:ext cx="545894" cy="447675"/>
+          <a:off x="11187697" y="3581400"/>
+          <a:ext cx="528054" cy="433045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,7 +809,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11077575" y="9631718"/>
+          <a:off x="11077575" y="10346093"/>
           <a:ext cx="816102" cy="444074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -884,7 +853,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10759109" y="9148879"/>
+          <a:off x="10759523" y="9855800"/>
           <a:ext cx="1449458" cy="378784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -941,15 +910,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>905659</xdr:colOff>
+      <xdr:colOff>1095375</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>20123</xdr:rowOff>
+      <xdr:rowOff>86798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1694793</xdr:colOff>
+      <xdr:colOff>1751945</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>458971</xdr:rowOff>
+      <xdr:rowOff>451926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -972,8 +941,360 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10883918" y="8113089"/>
-          <a:ext cx="789134" cy="438848"/>
+          <a:off x="11068050" y="8878373"/>
+          <a:ext cx="656570" cy="365128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>459700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7504C5FC-8DCB-436E-8C5D-5DE2790B6D70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10763250" y="13637726"/>
+          <a:ext cx="847725" cy="414149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>459700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4373A590-C21D-44F5-9595-4D6B6E38A25A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772361" y="15161312"/>
+          <a:ext cx="847725" cy="414149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>26501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>440650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D59791-4372-4503-A415-486F7E908F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="15637976"/>
+          <a:ext cx="847725" cy="414149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>811734</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1553254</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B6C985-71EA-45B1-BFEA-B6BFE0D40B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10784409" y="14125574"/>
+          <a:ext cx="741520" cy="438151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1051890</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2045804</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>441307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE5C5E6-44A6-4644-AFEE-7819D4A3A6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11024151" y="20213447"/>
+          <a:ext cx="993914" cy="396012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1071768</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>40325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2065682</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>436337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D095ABF1-B184-4417-A175-49DBE032FA10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11044029" y="19703238"/>
+          <a:ext cx="993914" cy="396012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>993913</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1987827</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>437425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BC9B02-BFAF-477D-A05E-0337772203C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10966174" y="18188609"/>
+          <a:ext cx="993914" cy="396012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1055078</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1903668</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>474663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D201BFB5-283B-4631-8BFA-22B59B2C2C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11034347" y="18683654"/>
+          <a:ext cx="848590" cy="452682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1250,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1299,14 +1620,14 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
@@ -1319,41 +1640,41 @@
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="2:5" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -1412,7 +1733,7 @@
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>11</v>
@@ -1435,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -1463,51 +1784,61 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="C25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="D26" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E26" s="28"/>
     </row>
     <row r="27" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
+      <c r="C27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
+      <c r="B28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="C29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>23</v>
+      <c r="C30" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
@@ -1538,7 +1869,9 @@
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D34" s="15"/>
       <c r="E34" s="7"/>
     </row>
@@ -1546,23 +1879,28 @@
       <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D36" s="15"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D37" s="15"/>
       <c r="E37" s="7"/>
     </row>
@@ -1570,7 +1908,9 @@
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D38" s="16"/>
       <c r="E38" s="9"/>
     </row>
@@ -1578,8 +1918,8 @@
       <c r="B39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>24</v>
+      <c r="C39" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
@@ -1632,7 +1972,7 @@
     </row>
     <row r="46" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -1651,7 +1991,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
@@ -1704,7 +2044,7 @@
     </row>
     <row r="55" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -1723,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
@@ -1776,7 +2116,7 @@
     </row>
     <row r="64" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -1795,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="20"/>
@@ -1848,7 +2188,7 @@
     </row>
     <row r="73" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -1867,7 +2207,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
@@ -1920,7 +2260,7 @@
     </row>
     <row r="82" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -1939,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="20"/>
@@ -1992,7 +2332,7 @@
     </row>
     <row r="91" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -2011,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="20"/>
@@ -2064,7 +2404,7 @@
     </row>
     <row r="100" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -2083,13 +2423,19 @@
         <v>10</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C57:E57"/>
@@ -2097,12 +2443,6 @@
     <mergeCell ref="C75:E75"/>
     <mergeCell ref="C84:E84"/>
     <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A17CEB-C1F2-4100-8649-DD1E85F9EE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8B3D63-8C4C-40A2-B0AF-CBD73CF55919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="35">
   <si>
     <t>Analista Inspector</t>
   </si>
@@ -94,9 +105,6 @@
   </si>
   <si>
     <t>HU: VUCEPERPAM-250 Detalle del manifiesto de mercancías peligrosas</t>
-  </si>
-  <si>
-    <t>Contiene 9 Casos de Prueba</t>
   </si>
   <si>
     <t>Contiene 41 Casos de Prueba</t>
@@ -134,6 +142,10 @@
   <si>
     <t>Contiene 8 Casos de Prueba
 El HU actual tiene diferencias con el IPS/PPS mapeado. Los roles propietarios ha variado significativamente</t>
+  </si>
+  <si>
+    <t>Inicialmente se encontró 9 Casos de Prueba, 5 casos en estado "postergado".
+Despues de la atención con el ajuste de la HU, se ha eliminado un caso que ya no aplica, dando un total de 8 Casos de Prueba, 4 casos en estado "postergado".</t>
   </si>
 </sst>
 </file>
@@ -503,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,30 +558,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,6 +568,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,7 +1239,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11044029" y="19703238"/>
+          <a:off x="11051037" y="19713113"/>
           <a:ext cx="993914" cy="396012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1295,6 +1329,226 @@
         <a:xfrm>
           <a:off x="11034347" y="18683654"/>
           <a:ext cx="848590" cy="452682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1025518</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>4295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1787517</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>416796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A407799F-5B74-877F-9924-E20A75308E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11004787" y="24732660"/>
+          <a:ext cx="761999" cy="412501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1275948</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2037947</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>474451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D338ABB5-859E-45C5-BCB4-3D443BB5A84F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11255217" y="24284758"/>
+          <a:ext cx="761999" cy="412501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1106365</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1825494</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>432289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336DC7F7-1D38-9234-32BD-219203E36313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11085634" y="22750097"/>
+          <a:ext cx="719129" cy="388327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>917139</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>92702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1679139</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>496815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9540BE9C-4635-B977-62AC-2C7123744734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896408" y="23809952"/>
+          <a:ext cx="762000" cy="404113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1070465</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1655885</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>16016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BFC203-8701-F83A-DC7D-D99FE3680266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049734" y="23254188"/>
+          <a:ext cx="585420" cy="479078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1571,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B37" sqref="B36:B37"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1587,21 +1841,21 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="29">
         <v>45678</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1620,64 +1874,64 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="2:5" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="C12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -1733,7 +1987,7 @@
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>11</v>
@@ -1755,11 +2009,11 @@
       <c r="B21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
@@ -1784,64 +2038,64 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="26" t="s">
-        <v>30</v>
+      <c r="B28" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="C30" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
@@ -1896,7 +2150,7 @@
     </row>
     <row r="37" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>11</v>
@@ -1918,31 +2172,31 @@
       <c r="B39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="C39" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1950,51 +2204,61 @@
       <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D43" s="15"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D44" s="15"/>
-      <c r="E44" s="7"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D45" s="15"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D46" s="15"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="9"/>
+      <c r="C47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
+      <c r="C48" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
@@ -2044,7 +2308,7 @@
     </row>
     <row r="55" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -2062,11 +2326,11 @@
       <c r="B57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
+      <c r="C57" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
@@ -2116,7 +2380,7 @@
     </row>
     <row r="64" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -2134,11 +2398,11 @@
       <c r="B66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
+      <c r="C66" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
     </row>
     <row r="67" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
@@ -2188,7 +2452,7 @@
     </row>
     <row r="73" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -2206,11 +2470,11 @@
       <c r="B75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="20"/>
+      <c r="C75" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
     </row>
     <row r="76" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
@@ -2260,7 +2524,7 @@
     </row>
     <row r="82" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -2278,11 +2542,11 @@
       <c r="B84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="20"/>
+      <c r="C84" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="26"/>
     </row>
     <row r="85" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
@@ -2332,7 +2596,7 @@
     </row>
     <row r="91" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -2350,11 +2614,11 @@
       <c r="B93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="20"/>
+      <c r="C93" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="25"/>
+      <c r="E93" s="26"/>
     </row>
     <row r="94" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
@@ -2404,7 +2668,7 @@
     </row>
     <row r="100" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -2422,20 +2686,14 @@
       <c r="B102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="20"/>
+      <c r="C102" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="25"/>
+      <c r="E102" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C57:E57"/>
@@ -2443,6 +2701,12 @@
     <mergeCell ref="C75:E75"/>
     <mergeCell ref="C84:E84"/>
     <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8B3D63-8C4C-40A2-B0AF-CBD73CF55919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F58410A-8836-40CE-B23A-EA706425D5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
   <si>
     <t>Analista Inspector</t>
   </si>
@@ -105,9 +103,6 @@
   </si>
   <si>
     <t>HU: VUCEPERPAM-250 Detalle del manifiesto de mercancías peligrosas</t>
-  </si>
-  <si>
-    <t>Contiene 41 Casos de Prueba</t>
   </si>
   <si>
     <t>Contiene 38 Casos de Prueba</t>
@@ -146,6 +141,9 @@
   <si>
     <t>Inicialmente se encontró 9 Casos de Prueba, 5 casos en estado "postergado".
 Despues de la atención con el ajuste de la HU, se ha eliminado un caso que ya no aplica, dando un total de 8 Casos de Prueba, 4 casos en estado "postergado".</t>
+  </si>
+  <si>
+    <t>Contiene 41 Casos de Prueba de los cuales 1 no aplica y 3 en Postergado. Se validó el HU, y se corrobora que la version está alineada a las pruebas.</t>
   </si>
 </sst>
 </file>
@@ -568,30 +566,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,6 +579,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -612,6 +595,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1549,6 +1547,226 @@
         <a:xfrm>
           <a:off x="11049734" y="23254188"/>
           <a:ext cx="585420" cy="479078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>718457</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1744259</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>499383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F270EF-9189-49B3-933E-403B683AFCF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706100" y="27216863"/>
+          <a:ext cx="1025802" cy="442377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1537892</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>449036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA965EC-3DD1-4F22-A064-5FE915200672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572750" y="29214535"/>
+          <a:ext cx="952785" cy="408215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>573444</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1526229</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>447092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E66E81-FDAD-4573-807B-41812C080E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10555255" y="28798545"/>
+          <a:ext cx="952785" cy="408215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>35988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1371852</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>476249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF20FFC-28CD-4E6A-9F35-D58A99819950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10545536" y="28290248"/>
+          <a:ext cx="808127" cy="440261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1304807</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>477778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F56DF76-5D9A-4587-BE23-A30280C0CA02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477499" y="27745765"/>
+          <a:ext cx="800543" cy="432954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1825,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1841,21 +2059,21 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="38">
         <v>45678</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1905,7 +2123,7 @@
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>11</v>
@@ -1927,11 +2145,11 @@
       <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -1987,7 +2205,7 @@
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>11</v>
@@ -2009,11 +2227,11 @@
       <c r="B21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
@@ -2069,7 +2287,7 @@
     </row>
     <row r="28" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>11</v>
@@ -2091,11 +2309,11 @@
       <c r="B30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="C30" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
@@ -2150,7 +2368,7 @@
     </row>
     <row r="37" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>11</v>
@@ -2172,11 +2390,11 @@
       <c r="B39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
+      <c r="C39" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
@@ -2187,16 +2405,16 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2208,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="E43" s="32"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
@@ -2218,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="15"/>
-      <c r="E44" s="32"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
@@ -2228,11 +2446,11 @@
         <v>11</v>
       </c>
       <c r="D45" s="15"/>
-      <c r="E45" s="32"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>11</v>
@@ -2251,14 +2469,14 @@
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="C48" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
     </row>
     <row r="49" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
@@ -2286,7 +2504,9 @@
       <c r="B52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D52" s="15"/>
       <c r="E52" s="7"/>
     </row>
@@ -2294,7 +2514,9 @@
       <c r="B53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D53" s="15"/>
       <c r="E53" s="7"/>
     </row>
@@ -2302,15 +2524,19 @@
       <c r="B54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D54" s="15"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D55" s="15"/>
       <c r="E55" s="7"/>
     </row>
@@ -2318,7 +2544,9 @@
       <c r="B56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="16"/>
+      <c r="C56" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D56" s="16"/>
       <c r="E56" s="9"/>
     </row>
@@ -2326,11 +2554,11 @@
       <c r="B57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
     </row>
     <row r="58" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
@@ -2380,7 +2608,7 @@
     </row>
     <row r="64" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -2398,11 +2626,11 @@
       <c r="B66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
+      <c r="C66" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="31"/>
     </row>
     <row r="67" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
@@ -2452,7 +2680,7 @@
     </row>
     <row r="73" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -2470,11 +2698,11 @@
       <c r="B75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
+      <c r="C75" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="30"/>
+      <c r="E75" s="31"/>
     </row>
     <row r="76" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
@@ -2524,7 +2752,7 @@
     </row>
     <row r="82" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -2542,11 +2770,11 @@
       <c r="B84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="26"/>
+      <c r="C84" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="30"/>
+      <c r="E84" s="31"/>
     </row>
     <row r="85" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
@@ -2596,7 +2824,7 @@
     </row>
     <row r="91" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -2614,11 +2842,11 @@
       <c r="B93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="26"/>
+      <c r="C93" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="30"/>
+      <c r="E93" s="31"/>
     </row>
     <row r="94" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
@@ -2668,7 +2896,7 @@
     </row>
     <row r="100" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -2686,14 +2914,20 @@
       <c r="B102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="26"/>
+      <c r="C102" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="30"/>
+      <c r="E102" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C57:E57"/>
@@ -2701,12 +2935,6 @@
     <mergeCell ref="C75:E75"/>
     <mergeCell ref="C84:E84"/>
     <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F58410A-8836-40CE-B23A-EA706425D5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55C7667-DFB4-4800-AFC1-87368E3DAA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
   <si>
     <t>Analista Inspector</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Contiene 41 Casos de Prueba de los cuales 1 no aplica y 3 en Postergado. Se validó el HU, y se corrobora que la version está alineada a las pruebas.</t>
+  </si>
+  <si>
+    <t>HU: VUCEPERPAM-7013 Detalle de la solicitud de despacho</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1592,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10706100" y="27216863"/>
+          <a:off x="10697726" y="27313160"/>
           <a:ext cx="1025802" cy="442377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1633,7 +1636,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10572750" y="29214535"/>
+          <a:off x="10564376" y="29319206"/>
           <a:ext cx="952785" cy="408215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1677,7 +1680,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10555255" y="28798545"/>
+          <a:off x="10552713" y="28811704"/>
           <a:ext cx="952785" cy="408215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1721,7 +1724,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10545536" y="28290248"/>
+          <a:off x="10542994" y="28303257"/>
           <a:ext cx="808127" cy="440261"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1765,7 +1768,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10477499" y="27745765"/>
+          <a:off x="10483533" y="27806536"/>
           <a:ext cx="800543" cy="432954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2041,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E102"/>
+  <dimension ref="B1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2920,14 +2923,79 @@
       <c r="D102" s="30"/>
       <c r="E102" s="31"/>
     </row>
+    <row r="103" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="29"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C111:E111"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C57:E57"/>

--- a/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55C7667-DFB4-4800-AFC1-87368E3DAA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E0A522-9EA6-45DC-989E-4E7FD6F8E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
   <si>
     <t>Analista Inspector</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>HU: VUCEPERPAM-250 Detalle del manifiesto de mercancías peligrosas</t>
-  </si>
-  <si>
-    <t>Contiene 38 Casos de Prueba</t>
   </si>
   <si>
     <t>Contiene 69 Casos de Prueba</t>
@@ -147,6 +144,11 @@
   </si>
   <si>
     <t>HU: VUCEPERPAM-7013 Detalle de la solicitud de despacho</t>
+  </si>
+  <si>
+    <t>De un inicio se encontró: 38 Casos de Prueba - 26 Conformes y 12 Postergados.
+Luego del ajuste con el HU, ya no se halla los usuarios "Portuario" y "seguridad", el cual se encontraron 5 casos de prueba, que se cambiará de estado a "NO Aplica" por motivo de cambio en HU. 
+Dando un resultado final de 38 casos de Prueba - 22 conformes, 5 No aplican y 11 postergados</t>
   </si>
 </sst>
 </file>
@@ -583,25 +585,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,6 +603,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1774,6 +1776,287 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1448658</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>483578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CE5C70-E524-BB3A-8D6A-05F77C3A9D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9979270" y="31806175"/>
+          <a:ext cx="1448657" cy="483576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1418052</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>471017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11104958-A80E-64F9-4454-0758DEEA1C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10037884" y="33850385"/>
+          <a:ext cx="1359437" cy="449036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43961</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1403398</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>463690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC9631A-6008-4B74-A1FF-6A696461BEDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10022220" y="33358723"/>
+          <a:ext cx="1359437" cy="449036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161193</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>692997</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>424961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFBDCFF-1F95-7F0A-B7E7-4B388D3CF076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10140462" y="32326385"/>
+          <a:ext cx="531804" cy="410307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1318847</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>35705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2635344</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>388327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63DBA41A-2D3C-0B44-95F6-C247F6A96C6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11298116" y="32347436"/>
+          <a:ext cx="1316497" cy="352622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>16615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1203729</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>443315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EF454E-44B1-2C81-851C-9A9AB68976CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10241017" y="32854874"/>
+          <a:ext cx="940971" cy="426700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2046,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2062,21 +2345,21 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="34">
         <v>45678</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2126,7 +2409,7 @@
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>11</v>
@@ -2148,8 +2431,8 @@
       <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>30</v>
+      <c r="C12" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
@@ -2208,7 +2491,7 @@
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>11</v>
@@ -2230,8 +2513,8 @@
       <c r="B21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>29</v>
+      <c r="C21" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
@@ -2290,7 +2573,7 @@
     </row>
     <row r="28" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>11</v>
@@ -2312,8 +2595,8 @@
       <c r="B30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>31</v>
+      <c r="C30" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="31"/>
@@ -2371,7 +2654,7 @@
     </row>
     <row r="37" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>11</v>
@@ -2393,8 +2676,8 @@
       <c r="B39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>32</v>
+      <c r="C39" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="31"/>
@@ -2453,7 +2736,7 @@
     </row>
     <row r="46" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>11</v>
@@ -2475,11 +2758,11 @@
       <c r="B48" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
+      <c r="C48" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
@@ -2535,7 +2818,7 @@
     </row>
     <row r="55" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>11</v>
@@ -2557,8 +2840,8 @@
       <c r="B57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>34</v>
+      <c r="C57" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="31"/>
@@ -2589,7 +2872,9 @@
       <c r="B61" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="15"/>
+      <c r="C61" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D61" s="15"/>
       <c r="E61" s="7"/>
     </row>
@@ -2597,7 +2882,9 @@
       <c r="B62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="15"/>
+      <c r="C62" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D62" s="15"/>
       <c r="E62" s="7"/>
     </row>
@@ -2605,32 +2892,36 @@
       <c r="B63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="15"/>
+      <c r="C63" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D63" s="15"/>
-      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D64" s="15"/>
-      <c r="E64" s="7"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="16"/>
+      <c r="C65" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D65" s="16"/>
-      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="31"/>
@@ -2683,7 +2974,7 @@
     </row>
     <row r="73" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -2701,8 +2992,8 @@
       <c r="B75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="29" t="s">
-        <v>24</v>
+      <c r="C75" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="31"/>
@@ -2755,7 +3046,7 @@
     </row>
     <row r="82" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -2773,8 +3064,8 @@
       <c r="B84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="29" t="s">
-        <v>25</v>
+      <c r="C84" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="31"/>
@@ -2827,7 +3118,7 @@
     </row>
     <row r="91" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -2845,8 +3136,8 @@
       <c r="B93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="29" t="s">
-        <v>26</v>
+      <c r="C93" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="31"/>
@@ -2899,7 +3190,7 @@
     </row>
     <row r="100" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -2917,8 +3208,8 @@
       <c r="B102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="29" t="s">
-        <v>27</v>
+      <c r="C102" s="36" t="s">
+        <v>26</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="31"/>
@@ -2927,7 +3218,7 @@
     <row r="104" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>3</v>
@@ -2965,7 +3256,7 @@
     </row>
     <row r="109" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
@@ -2983,18 +3274,12 @@
       <c r="B111" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="29"/>
+      <c r="C111" s="36"/>
       <c r="D111" s="30"/>
       <c r="E111" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C111:E111"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C48:E48"/>
@@ -3003,6 +3288,12 @@
     <mergeCell ref="C75:E75"/>
     <mergeCell ref="C84:E84"/>
     <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E0A522-9EA6-45DC-989E-4E7FD6F8E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FB237C-7856-4A4B-9B2F-2848B5FCAAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
   <si>
     <t>Analista Inspector</t>
   </si>
@@ -105,9 +105,6 @@
     <t>HU: VUCEPERPAM-250 Detalle del manifiesto de mercancías peligrosas</t>
   </si>
   <si>
-    <t>Contiene 69 Casos de Prueba</t>
-  </si>
-  <si>
     <t>Contiene 17 Casos de Prueba</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
     <t>De un inicio se encontró: 38 Casos de Prueba - 26 Conformes y 12 Postergados.
 Luego del ajuste con el HU, ya no se halla los usuarios "Portuario" y "seguridad", el cual se encontraron 5 casos de prueba, que se cambiará de estado a "NO Aplica" por motivo de cambio en HU. 
 Dando un resultado final de 38 casos de Prueba - 22 conformes, 5 No aplican y 11 postergados</t>
+  </si>
+  <si>
+    <t>Contiene 69 Casos de Prueba, cuyo 61 casos en estado Conforme y 8 Casos en estado "No Aplica". Se revisó el HU, y se corrobora que los usuarios mencionados son los mismos mencionados en el PPS, y funcionalidades similares</t>
   </si>
 </sst>
 </file>
@@ -771,15 +771,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1215022</xdr:colOff>
+      <xdr:colOff>1154763</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1743076</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>480670</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -802,8 +802,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11187697" y="3581400"/>
-          <a:ext cx="528054" cy="433045"/>
+          <a:off x="11127024" y="3584299"/>
+          <a:ext cx="588313" cy="482462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -953,9 +953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1751945</xdr:colOff>
+      <xdr:colOff>1713769</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>451926</xdr:rowOff>
+      <xdr:rowOff>430696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -978,8 +978,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11068050" y="8878373"/>
-          <a:ext cx="656570" cy="365128"/>
+          <a:off x="11067636" y="8882928"/>
+          <a:ext cx="618394" cy="343898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1299,15 +1299,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1055078</xdr:colOff>
+      <xdr:colOff>889426</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1903668</xdr:colOff>
+      <xdr:rowOff>5415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1738016</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>474663</xdr:rowOff>
+      <xdr:rowOff>458097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1330,7 +1330,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11034347" y="18683654"/>
+          <a:off x="10861687" y="18657850"/>
           <a:ext cx="848590" cy="452682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1374,7 +1374,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11004787" y="24732660"/>
+          <a:off x="10997779" y="24719599"/>
           <a:ext cx="761999" cy="412501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1506,7 +1506,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10896408" y="23809952"/>
+          <a:off x="10889400" y="23797528"/>
           <a:ext cx="762000" cy="404113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1519,15 +1519,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1070465</xdr:colOff>
+      <xdr:colOff>995921</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>42496</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1655885</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>16016</xdr:rowOff>
+      <xdr:rowOff>25931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1581341</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>504690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1550,8 +1550,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11049734" y="23254188"/>
-          <a:ext cx="585420" cy="479078"/>
+          <a:off x="10968182" y="23225518"/>
+          <a:ext cx="585420" cy="478759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1783,15 +1783,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>347871</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1448658</xdr:colOff>
+      <xdr:rowOff>16567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1796528</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>483578</xdr:rowOff>
+      <xdr:rowOff>500143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1814,7 +1814,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9979270" y="31806175"/>
+          <a:off x="10320132" y="31805219"/>
           <a:ext cx="1448657" cy="483576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1871,15 +1871,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>43961</xdr:colOff>
+      <xdr:colOff>43962</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1403398</xdr:colOff>
+      <xdr:colOff>1378734</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>463690</xdr:rowOff>
+      <xdr:rowOff>455543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1902,8 +1902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10022220" y="33358723"/>
-          <a:ext cx="1359437" cy="449036"/>
+          <a:off x="10016223" y="33319024"/>
+          <a:ext cx="1334772" cy="440889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,7 +1990,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11298116" y="32347436"/>
+          <a:off x="11291108" y="32329596"/>
           <a:ext cx="1316497" cy="352622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2057,6 +2057,226 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>827690</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1772729</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>472369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663417C0-9249-4E32-338B-8A556CADE493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10805949" y="37935776"/>
+          <a:ext cx="945039" cy="432955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>813290</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>46308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1765120</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>479391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC42B69-4C49-0021-6170-E54B42F51DC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10792559" y="38424731"/>
+          <a:ext cx="951830" cy="433083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>930519</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1840766</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>422965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2F605A-69D6-A1E7-374A-6D2AEC2F24BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10909788" y="36363520"/>
+          <a:ext cx="910247" cy="415637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>842597</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>36636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1636492</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>461596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5ADEC05-50FD-4B02-1B90-790B4D234AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10821866" y="37403944"/>
+          <a:ext cx="793895" cy="424960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1295301</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>405849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600A69A5-EC27-E54D-6513-69A22B7160B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10924762" y="36899022"/>
+          <a:ext cx="342800" cy="347870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2329,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:E111"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2409,7 +2629,7 @@
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>11</v>
@@ -2432,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
@@ -2491,7 +2711,7 @@
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>11</v>
@@ -2514,7 +2734,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
@@ -2573,7 +2793,7 @@
     </row>
     <row r="28" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>11</v>
@@ -2596,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="31"/>
@@ -2654,7 +2874,7 @@
     </row>
     <row r="37" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>11</v>
@@ -2677,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="31"/>
@@ -2705,7 +2925,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="15" t="s">
@@ -2715,7 +2935,7 @@
       <c r="E43" s="24"/>
     </row>
     <row r="44" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -2725,7 +2945,7 @@
       <c r="E44" s="24"/>
     </row>
     <row r="45" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -2735,8 +2955,8 @@
       <c r="E45" s="24"/>
     </row>
     <row r="46" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="6" t="s">
-        <v>27</v>
+      <c r="B46" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>11</v>
@@ -2745,7 +2965,7 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -2759,7 +2979,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="39"/>
@@ -2818,7 +3038,7 @@
     </row>
     <row r="55" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>11</v>
@@ -2841,7 +3061,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="31"/>
@@ -2899,7 +3119,7 @@
     </row>
     <row r="64" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>11</v>
@@ -2921,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="31"/>
@@ -2952,7 +3172,9 @@
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="15"/>
+      <c r="C70" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D70" s="15"/>
       <c r="E70" s="7"/>
     </row>
@@ -2960,7 +3182,9 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="15"/>
+      <c r="C71" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D71" s="15"/>
       <c r="E71" s="7"/>
     </row>
@@ -2968,15 +3192,19 @@
       <c r="B72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="15"/>
+      <c r="C72" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D72" s="15"/>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D73" s="15"/>
       <c r="E73" s="7"/>
     </row>
@@ -2984,7 +3212,9 @@
       <c r="B74" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="16"/>
+      <c r="C74" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D74" s="16"/>
       <c r="E74" s="9"/>
     </row>
@@ -2993,7 +3223,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="31"/>
@@ -3046,7 +3276,7 @@
     </row>
     <row r="82" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -3065,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="31"/>
@@ -3118,7 +3348,7 @@
     </row>
     <row r="91" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -3137,7 +3367,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="31"/>
@@ -3190,7 +3420,7 @@
     </row>
     <row r="100" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -3209,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="31"/>
@@ -3218,7 +3448,7 @@
     <row r="104" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>3</v>
@@ -3256,7 +3486,7 @@
     </row>
     <row r="109" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>

--- a/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/CheckList-Revision Entregable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FB237C-7856-4A4B-9B2F-2848B5FCAAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE978E-E36A-49A3-B75F-EA6D37F1FA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2095,7 +2095,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10805949" y="37935776"/>
+          <a:off x="10785645" y="37671823"/>
           <a:ext cx="945039" cy="432955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2139,7 +2139,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10792559" y="38424731"/>
+          <a:off x="10771245" y="38180944"/>
           <a:ext cx="951830" cy="433083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2183,7 +2183,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10909788" y="36363520"/>
+          <a:off x="10888474" y="36133055"/>
           <a:ext cx="910247" cy="415637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2227,7 +2227,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10821866" y="37403944"/>
+          <a:off x="10800552" y="37166818"/>
           <a:ext cx="793895" cy="424960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2271,7 +2271,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10924762" y="36899022"/>
+          <a:off x="10910456" y="36685934"/>
           <a:ext cx="342800" cy="347870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2549,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
